--- a/insulin information.xlsx
+++ b/insulin information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDA45B2-37DC-3D46-B0AB-AC1571080763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA65543-FAC8-C24C-BADD-4EAA53801C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2100" windowWidth="26240" windowHeight="15760" xr2:uid="{CD5EE53D-CAF3-4550-AC08-F5D49E6603D0}"/>
+    <workbookView xWindow="2420" yWindow="1580" windowWidth="26240" windowHeight="17040" xr2:uid="{CD5EE53D-CAF3-4550-AC08-F5D49E6603D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -704,9 +704,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,6 +722,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1062,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836215E7-2BA7-42EE-B252-E28F4089A896}">
   <dimension ref="A1:R207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1072,7 +1070,7 @@
     <col min="2" max="2" width="56.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.1640625" style="7" customWidth="1"/>
     <col min="8" max="9" width="23.5" style="7" customWidth="1"/>
@@ -1193,8 +1191,9 @@
       <c r="P2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="8">
-        <v>13</v>
+      <c r="Q2" s="14">
+        <f ca="1" xml:space="preserve"> RANDBETWEEN(20,60)</f>
+        <v>37</v>
       </c>
       <c r="R2" s="1">
         <v>3</v>
@@ -1249,8 +1248,9 @@
       <c r="P3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q3" s="8">
-        <v>20</v>
+      <c r="Q3" s="14">
+        <f t="shared" ref="Q3:Q66" ca="1" si="0" xml:space="preserve"> RANDBETWEEN(20,60)</f>
+        <v>27</v>
       </c>
       <c r="R3" s="1">
         <v>5</v>
@@ -1305,8 +1305,9 @@
       <c r="P4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q4" s="8">
-        <v>18</v>
+      <c r="Q4" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="R4" s="1">
         <v>4</v>
@@ -1361,8 +1362,9 @@
       <c r="P5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q5" s="8">
-        <v>20</v>
+      <c r="Q5" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
       <c r="R5" s="1">
         <v>1</v>
@@ -1417,8 +1419,9 @@
       <c r="P6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q6" s="8">
-        <v>32</v>
+      <c r="Q6" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
         <v>3</v>
@@ -1473,8 +1476,9 @@
       <c r="P7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="8">
-        <v>21</v>
+      <c r="Q7" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="R7" s="1">
         <v>2</v>
@@ -1529,8 +1533,9 @@
       <c r="P8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q8" s="8">
-        <v>35</v>
+      <c r="Q8" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="R8" s="1">
         <v>4</v>
@@ -1585,8 +1590,9 @@
       <c r="P9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q9" s="8">
-        <v>38</v>
+      <c r="Q9" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="R9" s="1">
         <v>1</v>
@@ -1641,8 +1647,9 @@
       <c r="P10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q10" s="8">
-        <v>30</v>
+      <c r="Q10" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="R10" s="1">
         <v>2</v>
@@ -1697,8 +1704,9 @@
       <c r="P11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q11" s="8">
-        <v>15</v>
+      <c r="Q11" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -1753,8 +1761,9 @@
       <c r="P12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="8">
-        <v>14</v>
+      <c r="Q12" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="R12" s="1">
         <v>5</v>
@@ -1809,8 +1818,9 @@
       <c r="P13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q13" s="8">
-        <v>20</v>
+      <c r="Q13" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="R13" s="1">
         <v>1</v>
@@ -1865,8 +1875,9 @@
       <c r="P14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="8">
-        <v>19</v>
+      <c r="Q14" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="R14" s="1">
         <v>5</v>
@@ -1921,8 +1932,9 @@
       <c r="P15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q15" s="8">
-        <v>32</v>
+      <c r="Q15" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="R15" s="1">
         <v>3</v>
@@ -1977,8 +1989,9 @@
       <c r="P16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="8">
-        <v>15</v>
+      <c r="Q16" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="R16" s="1">
         <v>2</v>
@@ -2033,8 +2046,9 @@
       <c r="P17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="8">
-        <v>6</v>
+      <c r="Q17" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="R17" s="1">
         <v>3</v>
@@ -2089,8 +2103,9 @@
       <c r="P18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="8">
-        <v>22</v>
+      <c r="Q18" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="R18" s="1">
         <v>4</v>
@@ -2145,8 +2160,9 @@
       <c r="P19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q19" s="8">
-        <v>30</v>
+      <c r="Q19" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="R19" s="1">
         <v>3</v>
@@ -2201,8 +2217,9 @@
       <c r="P20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q20" s="8">
-        <v>12</v>
+      <c r="Q20" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="R20" s="1">
         <v>2</v>
@@ -2257,8 +2274,9 @@
       <c r="P21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="8">
-        <v>31</v>
+      <c r="Q21" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="R21" s="1">
         <v>1</v>
@@ -2313,8 +2331,9 @@
       <c r="P22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q22" s="8">
-        <v>11</v>
+      <c r="Q22" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="R22" s="1">
         <v>2</v>
@@ -2369,8 +2388,9 @@
       <c r="P23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q23" s="8">
-        <v>33</v>
+      <c r="Q23" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="R23" s="1">
         <v>4</v>
@@ -2425,8 +2445,9 @@
       <c r="P24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q24" s="8">
-        <v>12</v>
+      <c r="Q24" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
       <c r="R24" s="1">
         <v>5</v>
@@ -2481,8 +2502,9 @@
       <c r="P25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="8">
-        <v>36</v>
+      <c r="Q25" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="R25" s="1">
         <v>3</v>
@@ -2537,8 +2559,9 @@
       <c r="P26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q26" s="8">
-        <v>30</v>
+      <c r="Q26" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="R26" s="1">
         <v>5</v>
@@ -2593,8 +2616,9 @@
       <c r="P27" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q27" s="8">
-        <v>33</v>
+      <c r="Q27" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
       </c>
       <c r="R27" s="1">
         <v>4</v>
@@ -2649,8 +2673,9 @@
       <c r="P28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q28" s="8">
-        <v>33</v>
+      <c r="Q28" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="R28" s="1">
         <v>1</v>
@@ -2705,8 +2730,9 @@
       <c r="P29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q29" s="8">
-        <v>34</v>
+      <c r="Q29" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="R29" s="1">
         <v>4</v>
@@ -2761,8 +2787,9 @@
       <c r="P30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q30" s="8">
-        <v>14</v>
+      <c r="Q30" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="R30" s="1">
         <v>3</v>
@@ -2817,8 +2844,9 @@
       <c r="P31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q31" s="8">
-        <v>13</v>
+      <c r="Q31" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -2873,8 +2901,9 @@
       <c r="P32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q32" s="8">
-        <v>20</v>
+      <c r="Q32" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="R32" s="1">
         <v>2</v>
@@ -2929,8 +2958,9 @@
       <c r="P33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q33" s="8">
-        <v>15</v>
+      <c r="Q33" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
@@ -2985,8 +3015,9 @@
       <c r="P34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q34" s="8">
-        <v>22</v>
+      <c r="Q34" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="R34" s="1">
         <v>5</v>
@@ -3041,8 +3072,9 @@
       <c r="P35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q35" s="8">
-        <v>32</v>
+      <c r="Q35" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="R35" s="1">
         <v>4</v>
@@ -3097,8 +3129,9 @@
       <c r="P36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q36" s="8">
-        <v>28</v>
+      <c r="Q36" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
       </c>
       <c r="R36" s="1">
         <v>1</v>
@@ -3153,8 +3186,9 @@
       <c r="P37" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q37" s="8">
-        <v>23</v>
+      <c r="Q37" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
       <c r="R37" s="1">
         <v>5</v>
@@ -3209,8 +3243,9 @@
       <c r="P38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q38" s="8">
-        <v>18</v>
+      <c r="Q38" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="R38" s="1">
         <v>2</v>
@@ -3265,8 +3300,9 @@
       <c r="P39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q39" s="8">
-        <v>10</v>
+      <c r="Q39" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="R39" s="1">
         <v>3</v>
@@ -3321,8 +3357,9 @@
       <c r="P40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q40" s="8">
-        <v>21</v>
+      <c r="Q40" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="R40" s="1">
         <v>1</v>
@@ -3377,8 +3414,9 @@
       <c r="P41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q41" s="8">
-        <v>12</v>
+      <c r="Q41" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="R41" s="1">
         <v>5</v>
@@ -3433,8 +3471,9 @@
       <c r="P42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q42" s="8">
-        <v>18</v>
+      <c r="Q42" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="R42" s="1">
         <v>4</v>
@@ -3489,8 +3528,9 @@
       <c r="P43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q43" s="8">
-        <v>11</v>
+      <c r="Q43" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="R43" s="1">
         <v>2</v>
@@ -3545,8 +3585,9 @@
       <c r="P44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q44" s="8">
-        <v>13</v>
+      <c r="Q44" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="R44" s="1">
         <v>1</v>
@@ -3601,8 +3642,9 @@
       <c r="P45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q45" s="8">
-        <v>15</v>
+      <c r="Q45" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="R45" s="1">
         <v>5</v>
@@ -3657,8 +3699,9 @@
       <c r="P46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q46" s="8">
-        <v>33</v>
+      <c r="Q46" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="R46" s="1">
         <v>3</v>
@@ -3713,8 +3756,9 @@
       <c r="P47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q47" s="8">
-        <v>17</v>
+      <c r="Q47" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="R47" s="1">
         <v>2</v>
@@ -3769,8 +3813,9 @@
       <c r="P48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q48" s="8">
-        <v>9</v>
+      <c r="Q48" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="R48" s="1">
         <v>4</v>
@@ -3825,8 +3870,9 @@
       <c r="P49" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q49" s="8">
-        <v>18</v>
+      <c r="Q49" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="R49" s="1">
         <v>3</v>
@@ -3881,8 +3927,9 @@
       <c r="P50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q50" s="8">
-        <v>17</v>
+      <c r="Q50" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
       </c>
       <c r="R50" s="1">
         <v>1</v>
@@ -3937,8 +3984,9 @@
       <c r="P51" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q51" s="8">
-        <v>14</v>
+      <c r="Q51" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="R51" s="1">
         <v>2</v>
@@ -3993,8 +4041,9 @@
       <c r="P52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q52" s="8">
-        <v>23</v>
+      <c r="Q52" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="R52" s="1">
         <v>4</v>
@@ -4049,8 +4098,9 @@
       <c r="P53" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q53" s="8">
-        <v>16</v>
+      <c r="Q53" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="R53" s="1">
         <v>5</v>
@@ -4105,8 +4155,9 @@
       <c r="P54" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q54" s="8">
-        <v>19</v>
+      <c r="Q54" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="R54" s="1">
         <v>1</v>
@@ -4161,8 +4212,9 @@
       <c r="P55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q55" s="8">
-        <v>16</v>
+      <c r="Q55" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
       <c r="R55" s="1">
         <v>5</v>
@@ -4217,8 +4269,9 @@
       <c r="P56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="8">
-        <v>20</v>
+      <c r="Q56" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="R56" s="1">
         <v>4</v>
@@ -4273,8 +4326,9 @@
       <c r="P57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q57" s="8">
-        <v>31</v>
+      <c r="Q57" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
       </c>
       <c r="R57" s="1">
         <v>2</v>
@@ -4329,8 +4383,9 @@
       <c r="P58" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q58" s="8">
-        <v>13</v>
+      <c r="Q58" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="R58" s="1">
         <v>3</v>
@@ -4385,8 +4440,9 @@
       <c r="P59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q59" s="8">
-        <v>26</v>
+      <c r="Q59" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
       </c>
       <c r="R59" s="1">
         <v>1</v>
@@ -4441,8 +4497,9 @@
       <c r="P60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q60" s="8">
-        <v>23</v>
+      <c r="Q60" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="R60" s="1">
         <v>3</v>
@@ -4497,8 +4554,9 @@
       <c r="P61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q61" s="8">
-        <v>32</v>
+      <c r="Q61" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="R61" s="1">
         <v>4</v>
@@ -4553,8 +4611,9 @@
       <c r="P62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q62" s="8">
-        <v>14</v>
+      <c r="Q62" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="R62" s="1">
         <v>5</v>
@@ -4609,8 +4668,9 @@
       <c r="P63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q63" s="8">
-        <v>12</v>
+      <c r="Q63" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="R63" s="1">
         <v>2</v>
@@ -4665,8 +4725,9 @@
       <c r="P64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q64" s="8">
-        <v>14</v>
+      <c r="Q64" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="R64" s="1">
         <v>1</v>
@@ -4721,8 +4782,9 @@
       <c r="P65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q65" s="8">
-        <v>35</v>
+      <c r="Q65" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="R65" s="1">
         <v>4</v>
@@ -4777,8 +4839,9 @@
       <c r="P66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q66" s="8">
-        <v>11</v>
+      <c r="Q66" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="R66" s="1">
         <v>5</v>
@@ -4833,8 +4896,9 @@
       <c r="P67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q67" s="8">
-        <v>12</v>
+      <c r="Q67" s="14">
+        <f t="shared" ref="Q67:Q130" ca="1" si="1" xml:space="preserve"> RANDBETWEEN(20,60)</f>
+        <v>58</v>
       </c>
       <c r="R67" s="1">
         <v>3</v>
@@ -4889,8 +4953,9 @@
       <c r="P68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q68" s="8">
-        <v>13</v>
+      <c r="Q68" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="R68" s="1">
         <v>2</v>
@@ -4945,8 +5010,9 @@
       <c r="P69" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q69" s="8">
-        <v>18</v>
+      <c r="Q69" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="R69" s="1">
         <v>1</v>
@@ -5001,8 +5067,9 @@
       <c r="P70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q70" s="8">
-        <v>13</v>
+      <c r="Q70" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
       </c>
       <c r="R70" s="1">
         <v>3</v>
@@ -5057,8 +5124,9 @@
       <c r="P71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q71" s="8">
-        <v>38</v>
+      <c r="Q71" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
       </c>
       <c r="R71" s="1">
         <v>5</v>
@@ -5113,8 +5181,9 @@
       <c r="P72" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q72" s="8">
-        <v>17</v>
+      <c r="Q72" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
       </c>
       <c r="R72" s="1">
         <v>4</v>
@@ -5169,8 +5238,9 @@
       <c r="P73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q73" s="8">
-        <v>23</v>
+      <c r="Q73" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="R73" s="1">
         <v>2</v>
@@ -5225,8 +5295,9 @@
       <c r="P74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q74" s="8">
-        <v>9</v>
+      <c r="Q74" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="R74" s="1">
         <v>5</v>
@@ -5281,8 +5352,9 @@
       <c r="P75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q75" s="8">
-        <v>35</v>
+      <c r="Q75" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="R75" s="1">
         <v>4</v>
@@ -5337,8 +5409,9 @@
       <c r="P76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q76" s="8">
-        <v>27</v>
+      <c r="Q76" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="R76" s="1">
         <v>1</v>
@@ -5393,8 +5466,9 @@
       <c r="P77" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q77" s="8">
-        <v>18</v>
+      <c r="Q77" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="R77" s="1">
         <v>2</v>
@@ -5449,8 +5523,9 @@
       <c r="P78" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q78" s="8">
-        <v>17</v>
+      <c r="Q78" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="R78" s="1">
         <v>3</v>
@@ -5505,8 +5580,9 @@
       <c r="P79" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q79" s="8">
-        <v>28</v>
+      <c r="Q79" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="R79" s="1">
         <v>1</v>
@@ -5561,8 +5637,9 @@
       <c r="P80" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q80" s="8">
-        <v>35</v>
+      <c r="Q80" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
       <c r="R80" s="1">
         <v>4</v>
@@ -5617,8 +5694,9 @@
       <c r="P81" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q81" s="8">
-        <v>16</v>
+      <c r="Q81" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="R81" s="1">
         <v>5</v>
@@ -5673,8 +5751,9 @@
       <c r="P82" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q82" s="8">
-        <v>19</v>
+      <c r="Q82" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
       </c>
       <c r="R82" s="1">
         <v>2</v>
@@ -5729,8 +5808,9 @@
       <c r="P83" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q83" s="8">
-        <v>13</v>
+      <c r="Q83" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="R83" s="1">
         <v>3</v>
@@ -5785,8 +5865,9 @@
       <c r="P84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q84" s="8">
-        <v>10</v>
+      <c r="Q84" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="R84" s="1">
         <v>1</v>
@@ -5841,8 +5922,9 @@
       <c r="P85" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q85" s="8">
-        <v>24</v>
+      <c r="Q85" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
       <c r="R85" s="1">
         <v>4</v>
@@ -5897,8 +5979,9 @@
       <c r="P86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q86" s="8">
-        <v>14</v>
+      <c r="Q86" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="R86" s="1">
         <v>5</v>
@@ -5953,8 +6036,9 @@
       <c r="P87" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q87" s="8">
-        <v>7</v>
+      <c r="Q87" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
       </c>
       <c r="R87" s="1">
         <v>3</v>
@@ -6009,8 +6093,9 @@
       <c r="P88" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q88" s="8">
-        <v>35</v>
+      <c r="Q88" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
       </c>
       <c r="R88" s="1">
         <v>1</v>
@@ -6065,7 +6150,8 @@
       <c r="P89" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="14">
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
       <c r="R89" s="1">
@@ -6121,8 +6207,9 @@
       <c r="P90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q90" s="8">
-        <v>12</v>
+      <c r="Q90" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="R90" s="1">
         <v>4</v>
@@ -6177,8 +6264,9 @@
       <c r="P91" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q91" s="8">
-        <v>18</v>
+      <c r="Q91" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="R91" s="1">
         <v>5</v>
@@ -6233,8 +6321,9 @@
       <c r="P92" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q92" s="8">
-        <v>9</v>
+      <c r="Q92" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="R92" s="1">
         <v>2</v>
@@ -6289,8 +6378,9 @@
       <c r="P93" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q93" s="8">
-        <v>15</v>
+      <c r="Q93" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="R93" s="1">
         <v>3</v>
@@ -6345,8 +6435,9 @@
       <c r="P94" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q94" s="8">
-        <v>13</v>
+      <c r="Q94" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
       </c>
       <c r="R94" s="1">
         <v>1</v>
@@ -6401,8 +6492,9 @@
       <c r="P95" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q95" s="8">
-        <v>20</v>
+      <c r="Q95" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="R95" s="1">
         <v>5</v>
@@ -6457,8 +6549,9 @@
       <c r="P96" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q96" s="8">
-        <v>19</v>
+      <c r="Q96" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="R96" s="1">
         <v>4</v>
@@ -6513,8 +6606,9 @@
       <c r="P97" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q97" s="8">
-        <v>14</v>
+      <c r="Q97" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
       </c>
       <c r="R97" s="1">
         <v>3</v>
@@ -6569,8 +6663,9 @@
       <c r="P98" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q98" s="8">
-        <v>15</v>
+      <c r="Q98" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="R98" s="1">
         <v>2</v>
@@ -6625,8 +6720,9 @@
       <c r="P99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q99" s="8">
-        <v>12</v>
+      <c r="Q99" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="R99" s="1">
         <v>1</v>
@@ -6681,8 +6777,9 @@
       <c r="P100" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q100" s="8">
-        <v>17</v>
+      <c r="Q100" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="R100" s="1">
         <v>5</v>
@@ -6737,8 +6834,9 @@
       <c r="P101" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q101" s="8">
-        <v>32</v>
+      <c r="Q101" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
       </c>
       <c r="R101" s="1">
         <v>4</v>
@@ -6793,8 +6891,9 @@
       <c r="P102" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q102" s="8">
-        <v>35</v>
+      <c r="Q102" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="R102" s="1">
         <v>2</v>
@@ -6849,8 +6948,9 @@
       <c r="P103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q103" s="8">
-        <v>17</v>
+      <c r="Q103" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="R103" s="1">
         <v>3</v>
@@ -6905,8 +7005,9 @@
       <c r="P104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q104" s="8">
-        <v>14</v>
+      <c r="Q104" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="R104" s="1">
         <v>4</v>
@@ -6961,8 +7062,9 @@
       <c r="P105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q105" s="8">
-        <v>10</v>
+      <c r="Q105" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="R105" s="1">
         <v>1</v>
@@ -7017,8 +7119,9 @@
       <c r="P106" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q106" s="8">
-        <v>19</v>
+      <c r="Q106" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>25</v>
       </c>
       <c r="R106" s="1">
         <v>2</v>
@@ -7073,8 +7176,9 @@
       <c r="P107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q107" s="8">
-        <v>18</v>
+      <c r="Q107" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="R107" s="1">
         <v>5</v>
@@ -7129,8 +7233,9 @@
       <c r="P108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q108" s="8">
-        <v>14</v>
+      <c r="Q108" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="R108" s="1">
         <v>3</v>
@@ -7185,8 +7290,9 @@
       <c r="P109" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q109" s="8">
-        <v>27</v>
+      <c r="Q109" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="R109" s="1">
         <v>1</v>
@@ -7241,8 +7347,9 @@
       <c r="P110" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q110" s="8">
-        <v>22</v>
+      <c r="Q110" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
       </c>
       <c r="R110" s="1">
         <v>2</v>
@@ -7297,8 +7404,9 @@
       <c r="P111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q111" s="8">
-        <v>32</v>
+      <c r="Q111" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="R111" s="1">
         <v>5</v>
@@ -7353,8 +7461,9 @@
       <c r="P112" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q112" s="8">
-        <v>16</v>
+      <c r="Q112" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="R112" s="1">
         <v>4</v>
@@ -7409,8 +7518,9 @@
       <c r="P113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q113" s="8">
-        <v>30</v>
+      <c r="Q113" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="R113" s="1">
         <v>3</v>
@@ -7465,8 +7575,9 @@
       <c r="P114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q114" s="8">
-        <v>12</v>
+      <c r="Q114" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="R114" s="1">
         <v>1</v>
@@ -7521,8 +7632,9 @@
       <c r="P115" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q115" s="8">
-        <v>37</v>
+      <c r="Q115" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
       </c>
       <c r="R115" s="1">
         <v>4</v>
@@ -7577,8 +7689,9 @@
       <c r="P116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q116" s="8">
-        <v>34</v>
+      <c r="Q116" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="R116" s="1">
         <v>5</v>
@@ -7633,8 +7746,9 @@
       <c r="P117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q117" s="8">
-        <v>32</v>
+      <c r="Q117" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="R117" s="1">
         <v>2</v>
@@ -7689,8 +7803,9 @@
       <c r="P118" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q118" s="8">
-        <v>8</v>
+      <c r="Q118" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="R118" s="1">
         <v>3</v>
@@ -7745,8 +7860,9 @@
       <c r="P119" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q119" s="8">
-        <v>19</v>
+      <c r="Q119" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="R119" s="1">
         <v>1</v>
@@ -7801,8 +7917,9 @@
       <c r="P120" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q120" s="8">
-        <v>14</v>
+      <c r="Q120" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
       </c>
       <c r="R120" s="1">
         <v>5</v>
@@ -7857,8 +7974,9 @@
       <c r="P121" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q121" s="8">
-        <v>32</v>
+      <c r="Q121" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
       </c>
       <c r="R121" s="1">
         <v>2</v>
@@ -7913,8 +8031,9 @@
       <c r="P122" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q122" s="8">
-        <v>21</v>
+      <c r="Q122" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="R122" s="1">
         <v>4</v>
@@ -7969,8 +8088,9 @@
       <c r="P123" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q123" s="8">
-        <v>10</v>
+      <c r="Q123" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
       </c>
       <c r="R123" s="1">
         <v>3</v>
@@ -8025,8 +8145,9 @@
       <c r="P124" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q124" s="8">
-        <v>7</v>
+      <c r="Q124" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
       </c>
       <c r="R124" s="1">
         <v>2</v>
@@ -8081,8 +8202,9 @@
       <c r="P125" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q125" s="8">
-        <v>20</v>
+      <c r="Q125" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
       </c>
       <c r="R125" s="1">
         <v>1</v>
@@ -8137,8 +8259,9 @@
       <c r="P126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q126" s="8">
-        <v>12</v>
+      <c r="Q126" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
       </c>
       <c r="R126" s="1">
         <v>5</v>
@@ -8193,8 +8316,9 @@
       <c r="P127" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q127" s="8">
-        <v>13</v>
+      <c r="Q127" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
       </c>
       <c r="R127" s="1">
         <v>4</v>
@@ -8249,8 +8373,9 @@
       <c r="P128" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q128" s="8">
-        <v>22</v>
+      <c r="Q128" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>21</v>
       </c>
       <c r="R128" s="1">
         <v>3</v>
@@ -8305,8 +8430,9 @@
       <c r="P129" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q129" s="8">
-        <v>19</v>
+      <c r="Q129" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="R129" s="1">
         <v>2</v>
@@ -8361,8 +8487,9 @@
       <c r="P130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q130" s="8">
-        <v>21</v>
+      <c r="Q130" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
       </c>
       <c r="R130" s="1">
         <v>1</v>
@@ -8417,8 +8544,9 @@
       <c r="P131" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q131" s="8">
-        <v>18</v>
+      <c r="Q131" s="14">
+        <f t="shared" ref="Q131:Q159" ca="1" si="2" xml:space="preserve"> RANDBETWEEN(20,60)</f>
+        <v>46</v>
       </c>
       <c r="R131" s="1">
         <v>5</v>
@@ -8473,8 +8601,9 @@
       <c r="P132" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q132" s="8">
-        <v>10</v>
+      <c r="Q132" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
       </c>
       <c r="R132" s="1">
         <v>4</v>
@@ -8529,8 +8658,9 @@
       <c r="P133" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q133" s="8">
-        <v>8</v>
+      <c r="Q133" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
       </c>
       <c r="R133" s="1">
         <v>1</v>
@@ -8585,8 +8715,9 @@
       <c r="P134" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q134" s="8">
-        <v>17</v>
+      <c r="Q134" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
       </c>
       <c r="R134" s="1">
         <v>3</v>
@@ -8641,8 +8772,9 @@
       <c r="P135" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q135" s="8">
-        <v>17</v>
+      <c r="Q135" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
       </c>
       <c r="R135" s="1">
         <v>5</v>
@@ -8697,8 +8829,9 @@
       <c r="P136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q136" s="8">
-        <v>18</v>
+      <c r="Q136" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
       </c>
       <c r="R136" s="1">
         <v>2</v>
@@ -8753,8 +8886,9 @@
       <c r="P137" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q137" s="8">
-        <v>20</v>
+      <c r="Q137" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
       </c>
       <c r="R137" s="1">
         <v>4</v>
@@ -8809,7 +8943,8 @@
       <c r="P138" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q138" s="8">
+      <c r="Q138" s="14">
+        <f t="shared" ca="1" si="2"/>
         <v>36</v>
       </c>
       <c r="R138" s="1">
@@ -8865,8 +9000,9 @@
       <c r="P139" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q139" s="8">
-        <v>12</v>
+      <c r="Q139" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>49</v>
       </c>
       <c r="R139" s="1">
         <v>3</v>
@@ -8921,8 +9057,9 @@
       <c r="P140" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q140" s="8">
-        <v>22</v>
+      <c r="Q140" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>31</v>
       </c>
       <c r="R140" s="1">
         <v>5</v>
@@ -8977,8 +9114,9 @@
       <c r="P141" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q141" s="8">
-        <v>23</v>
+      <c r="Q141" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
       </c>
       <c r="R141" s="1">
         <v>2</v>
@@ -9033,8 +9171,9 @@
       <c r="P142" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q142" s="8">
-        <v>8</v>
+      <c r="Q142" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="R142" s="1">
         <v>4</v>
@@ -9089,8 +9228,9 @@
       <c r="P143" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q143" s="8">
-        <v>17</v>
+      <c r="Q143" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="R143" s="1">
         <v>3</v>
@@ -9145,8 +9285,9 @@
       <c r="P144" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q144" s="8">
-        <v>10</v>
+      <c r="Q144" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
       </c>
       <c r="R144" s="1">
         <v>1</v>
@@ -9201,8 +9342,9 @@
       <c r="P145" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q145" s="8">
-        <v>16</v>
+      <c r="Q145" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
       </c>
       <c r="R145" s="1">
         <v>2</v>
@@ -9257,8 +9399,9 @@
       <c r="P146" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q146" s="8">
-        <v>14</v>
+      <c r="Q146" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>26</v>
       </c>
       <c r="R146" s="1">
         <v>5</v>
@@ -9313,8 +9456,9 @@
       <c r="P147" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q147" s="8">
-        <v>18</v>
+      <c r="Q147" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
       </c>
       <c r="R147" s="1">
         <v>4</v>
@@ -9369,8 +9513,9 @@
       <c r="P148" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q148" s="8">
-        <v>31</v>
+      <c r="Q148" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="R148" s="1">
         <v>1</v>
@@ -9425,8 +9570,9 @@
       <c r="P149" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q149" s="8">
-        <v>23</v>
+      <c r="Q149" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
       </c>
       <c r="R149" s="1">
         <v>3</v>
@@ -9481,8 +9627,9 @@
       <c r="P150" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Q150" s="8">
-        <v>7</v>
+      <c r="Q150" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>22</v>
       </c>
       <c r="R150" s="1">
         <v>2</v>
@@ -9537,8 +9684,9 @@
       <c r="P151" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q151" s="8">
-        <v>12</v>
+      <c r="Q151" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
       </c>
       <c r="R151" s="1">
         <v>5</v>
@@ -9593,8 +9741,9 @@
       <c r="P152" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q152" s="8">
-        <v>16</v>
+      <c r="Q152" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>42</v>
       </c>
       <c r="R152" s="1">
         <v>4</v>
@@ -9649,8 +9798,9 @@
       <c r="P153" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q153" s="8">
-        <v>17</v>
+      <c r="Q153" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
       </c>
       <c r="R153" s="1">
         <v>3</v>
@@ -9705,8 +9855,9 @@
       <c r="P154" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q154" s="8">
-        <v>22</v>
+      <c r="Q154" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
       </c>
       <c r="R154" s="1">
         <v>1</v>
@@ -9761,8 +9912,9 @@
       <c r="P155" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q155" s="8">
-        <v>15</v>
+      <c r="Q155" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
       </c>
       <c r="R155" s="1">
         <v>5</v>
@@ -9817,8 +9969,9 @@
       <c r="P156" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q156" s="8">
-        <v>33</v>
+      <c r="Q156" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
       </c>
       <c r="R156" s="1">
         <v>2</v>
@@ -9873,8 +10026,9 @@
       <c r="P157" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q157" s="8">
-        <v>14</v>
+      <c r="Q157" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
       </c>
       <c r="R157" s="1">
         <v>4</v>
@@ -9929,8 +10083,9 @@
       <c r="P158" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q158" s="8">
-        <v>14</v>
+      <c r="Q158" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
       </c>
       <c r="R158" s="1">
         <v>3</v>
@@ -9985,423 +10140,424 @@
       <c r="P159" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q159" s="8">
-        <v>8</v>
+      <c r="Q159" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
       </c>
       <c r="R159" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:18">
-      <c r="G160" s="10"/>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
       <c r="K160" s="1"/>
-      <c r="N160" s="12"/>
-      <c r="P160" s="13"/>
+      <c r="N160" s="11"/>
+      <c r="P160" s="12"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
     <row r="161" spans="7:18">
-      <c r="G161" s="10"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
-      <c r="N161" s="12"/>
-      <c r="P161" s="13"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="N161" s="11"/>
+      <c r="P161" s="12"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
     </row>
     <row r="162" spans="7:18">
-      <c r="G162" s="10"/>
-      <c r="H162" s="11"/>
-      <c r="I162" s="11"/>
-      <c r="N162" s="12"/>
-      <c r="P162" s="13"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="N162" s="11"/>
+      <c r="P162" s="12"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
     </row>
     <row r="163" spans="7:18">
-      <c r="G163" s="10"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="N163" s="12"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="N163" s="11"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
     </row>
     <row r="164" spans="7:18" ht="13.75" customHeight="1">
-      <c r="G164" s="13"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="N164" s="12"/>
-      <c r="P164" s="11"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="N164" s="11"/>
+      <c r="P164" s="10"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
     </row>
     <row r="165" spans="7:18" ht="13.75" customHeight="1" thickBot="1">
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="N165" s="12"/>
-      <c r="P165" s="14"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="N165" s="11"/>
+      <c r="P165" s="13"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
     </row>
     <row r="166" spans="7:18">
-      <c r="G166" s="10"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="N166" s="12"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="N166" s="11"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
     </row>
     <row r="167" spans="7:18">
-      <c r="G167" s="13"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="N167" s="12"/>
-      <c r="P167" s="13"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="N167" s="11"/>
+      <c r="P167" s="12"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
     </row>
     <row r="168" spans="7:18">
-      <c r="G168" s="13"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
-      <c r="N168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="N168" s="11"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
     </row>
     <row r="169" spans="7:18" ht="16" thickBot="1">
-      <c r="G169" s="10"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
-      <c r="N169" s="12"/>
-      <c r="P169" s="14"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="N169" s="11"/>
+      <c r="P169" s="13"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="7:18">
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="N170" s="12"/>
-      <c r="P170" s="13"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="N170" s="11"/>
+      <c r="P170" s="12"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="7:18" ht="16" thickBot="1">
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="N171" s="12"/>
-      <c r="P171" s="14"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="N171" s="11"/>
+      <c r="P171" s="13"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
     <row r="172" spans="7:18">
-      <c r="G172" s="10"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="N172" s="12"/>
-      <c r="P172" s="13"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="N172" s="11"/>
+      <c r="P172" s="12"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
     <row r="173" spans="7:18">
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="N173" s="12"/>
-      <c r="P173" s="13"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="N173" s="11"/>
+      <c r="P173" s="12"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
     </row>
     <row r="174" spans="7:18">
-      <c r="G174" s="13"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="N174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="N174" s="11"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
     </row>
     <row r="175" spans="7:18" ht="16" thickBot="1">
-      <c r="G175" s="13"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="N175" s="12"/>
-      <c r="P175" s="14"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="N175" s="11"/>
+      <c r="P175" s="13"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
     </row>
     <row r="176" spans="7:18" ht="16" thickBot="1">
-      <c r="G176" s="10"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="N176" s="12"/>
-      <c r="P176" s="14"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="N176" s="11"/>
+      <c r="P176" s="13"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
     <row r="177" spans="7:18">
-      <c r="G177" s="13"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="N177" s="12"/>
-      <c r="P177" s="11"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="N177" s="11"/>
+      <c r="P177" s="10"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
     </row>
     <row r="178" spans="7:18">
-      <c r="G178" s="10"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="N178" s="12"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="N178" s="11"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
     </row>
     <row r="179" spans="7:18">
-      <c r="G179" s="10"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="N179" s="12"/>
+      <c r="G179" s="9"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="N179" s="11"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
     </row>
     <row r="180" spans="7:18">
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="N180" s="12"/>
-      <c r="P180" s="13"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="N180" s="11"/>
+      <c r="P180" s="12"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
     </row>
     <row r="181" spans="7:18">
-      <c r="G181" s="13"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="N181" s="12"/>
-      <c r="P181" s="11"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="N181" s="11"/>
+      <c r="P181" s="10"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
     </row>
     <row r="182" spans="7:18" ht="16" thickBot="1">
-      <c r="G182" s="13"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="N182" s="12"/>
-      <c r="P182" s="14"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="N182" s="11"/>
+      <c r="P182" s="13"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
     </row>
     <row r="183" spans="7:18" ht="16" thickBot="1">
-      <c r="G183" s="10"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="N183" s="12"/>
-      <c r="P183" s="14"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="N183" s="11"/>
+      <c r="P183" s="13"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
     </row>
     <row r="184" spans="7:18">
-      <c r="G184" s="13"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="N184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="N184" s="11"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
     <row r="185" spans="7:18">
-      <c r="G185" s="13"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="N185" s="12"/>
-      <c r="P185" s="13"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="N185" s="11"/>
+      <c r="P185" s="12"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
     </row>
     <row r="186" spans="7:18">
-      <c r="G186" s="10"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="N186" s="12"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="N186" s="11"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
     </row>
     <row r="187" spans="7:18" ht="16" thickBot="1">
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="N187" s="12"/>
-      <c r="P187" s="14"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="N187" s="11"/>
+      <c r="P187" s="13"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
     </row>
     <row r="188" spans="7:18">
-      <c r="G188" s="10"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="N188" s="12"/>
+      <c r="G188" s="9"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="N188" s="11"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
     <row r="189" spans="7:18">
-      <c r="G189" s="10"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="N189" s="12"/>
-      <c r="P189" s="13"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="N189" s="11"/>
+      <c r="P189" s="12"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
     </row>
     <row r="190" spans="7:18" ht="16" thickBot="1">
-      <c r="G190" s="10"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="N190" s="12"/>
-      <c r="P190" s="14"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="N190" s="11"/>
+      <c r="P190" s="13"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
     </row>
     <row r="191" spans="7:18">
-      <c r="G191" s="10"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
-      <c r="N191" s="12"/>
+      <c r="G191" s="9"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="N191" s="11"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
     </row>
     <row r="192" spans="7:18">
-      <c r="G192" s="10"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="N192" s="12"/>
-      <c r="P192" s="13"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="N192" s="11"/>
+      <c r="P192" s="12"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
     </row>
     <row r="193" spans="7:18" ht="16" thickBot="1">
-      <c r="G193" s="10"/>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="N193" s="12"/>
-      <c r="P193" s="14"/>
+      <c r="G193" s="9"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="N193" s="11"/>
+      <c r="P193" s="13"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
     </row>
     <row r="194" spans="7:18" ht="13.75" customHeight="1">
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="N194" s="12"/>
-      <c r="P194" s="13"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="N194" s="11"/>
+      <c r="P194" s="12"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
     </row>
     <row r="195" spans="7:18" ht="16" thickBot="1">
-      <c r="G195" s="10"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="N195" s="12"/>
-      <c r="P195" s="14"/>
+      <c r="G195" s="9"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="N195" s="11"/>
+      <c r="P195" s="13"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="7:18">
-      <c r="G196" s="13"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="N196" s="12"/>
-      <c r="P196" s="11"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="N196" s="11"/>
+      <c r="P196" s="10"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="7:18" ht="16" thickBot="1">
-      <c r="G197" s="13"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="N197" s="12"/>
-      <c r="P197" s="14"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="N197" s="11"/>
+      <c r="P197" s="13"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="7:18">
-      <c r="G198" s="13"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="N198" s="12"/>
-      <c r="P198" s="13"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="N198" s="11"/>
+      <c r="P198" s="12"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="7:18" ht="16" thickBot="1">
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="N199" s="12"/>
-      <c r="P199" s="14"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="N199" s="11"/>
+      <c r="P199" s="13"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="7:18">
-      <c r="G200" s="13"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="N200" s="12"/>
-      <c r="P200" s="13"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="N200" s="11"/>
+      <c r="P200" s="12"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
     <row r="201" spans="7:18" ht="16" thickBot="1">
-      <c r="G201" s="10"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="N201" s="12"/>
-      <c r="P201" s="14"/>
+      <c r="G201" s="9"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="N201" s="11"/>
+      <c r="P201" s="13"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
     </row>
     <row r="202" spans="7:18">
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="N202" s="12"/>
-      <c r="P202" s="13"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="N202" s="11"/>
+      <c r="P202" s="12"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="7:18">
-      <c r="G203" s="10"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="N203" s="12"/>
-      <c r="P203" s="13"/>
+      <c r="G203" s="9"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="N203" s="11"/>
+      <c r="P203" s="12"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="7:18">
-      <c r="G204" s="13"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="N204" s="12"/>
-      <c r="P204" s="13"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="N204" s="11"/>
+      <c r="P204" s="12"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="7:18">
-      <c r="G205" s="13"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="N205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="N205" s="11"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="7:18">
-      <c r="G206" s="10"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="N206" s="12"/>
-      <c r="P206" s="13"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="N206" s="11"/>
+      <c r="P206" s="12"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="7:18" ht="16" thickBot="1">
-      <c r="G207" s="10"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="N207" s="12"/>
-      <c r="P207" s="14"/>
+      <c r="G207" s="9"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="N207" s="11"/>
+      <c r="P207" s="13"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
@@ -10409,5 +10565,6 @@
   <autoFilter ref="A1:R207" xr:uid="{836215E7-2BA7-42EE-B252-E28F4089A896}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>